--- a/successful_tours_looks_like.xlsx
+++ b/successful_tours_looks_like.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,15 +435,16 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="97" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="53" customWidth="1" min="7" max="7"/>
-    <col width="29" customWidth="1" min="8" max="8"/>
-    <col width="33" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
-    <col width="29" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="53" customWidth="1" min="8" max="8"/>
+    <col width="29" customWidth="1" min="9" max="9"/>
+    <col width="33" customWidth="1" min="10" max="10"/>
+    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="29" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -459,45 +460,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>most_common_tour</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>average_travellers</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Total_Travellers</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Average_number_of_products</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Total_profit</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Top_3_travel_days</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Average_Money_Spent_per_group</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>average_money_spent_per_traveller</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>most_common_languages</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>most_common_number_of_stories</t>
         </is>
@@ -514,35 +520,40 @@
           <t>August</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets']</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>3.91869918699187</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>369</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2.181571815718157</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>22040.39</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>[('Wednesday', 81), ('Thursday', 52), ('Monday', 50)]</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>91.50035230352303</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>23.69672086720867</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -557,35 +568,40 @@
           <t>August</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Quinta da Regaleira Entry Ticket']</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>3.591224018475751</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>433</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.752886836027714</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>21958.6</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>[('Thursday', 82), ('Wednesday', 81), ('Monday', 74)]</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>77.02909930715936</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>22.68475750577367</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,35 +616,40 @@
           <t>May</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['St. George Castle e -ticket with audio tours']</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>3.610958904109589</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>365</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2.76986301369863</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>18273.5</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>[('Monday', 61), ('Saturday', 59), ('Wednesday', 57)]</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>87.3082191780822</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>25.2972602739726</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -643,35 +664,40 @@
           <t>June</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['St. George Castle e -ticket with audio tours']</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3.628676470588236</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>272</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.643382352941177</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>14030.6</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>[('Friday', 57), ('Monday', 45), ('Thursday', 41)]</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>87.7595588235294</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>25.44007352941176</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -686,35 +712,40 @@
           <t>June</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['NAM &amp; Athens City Tour']</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>4.051643192488263</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>213</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.830985915492958</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>13744.5</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>[('Monday', 40), ('Friday', 37), ('Thursday', 35)]</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>92.2981220657277</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>22.67136150234742</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -729,35 +760,40 @@
           <t>April</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Pena Palace, the Moorish Castle, the Quinta da Regaleira + Sintra']</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>4.331838565022421</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>223</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.282511210762332</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>13032</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[('Sunday', 45), ('Monday', 43), ('Friday', 35)]</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>100.4618834080717</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>23.35650224215247</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -772,35 +808,40 @@
           <t>May</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets']</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>4.212328767123288</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>146</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.082191780821918</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>9594.91</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>[('Wednesday', 30), ('Friday', 26), ('Tuesday', 22)]</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>96.42383561643835</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>22.81828767123288</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -815,35 +856,40 @@
           <t>October</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Entry e-tickets for The Mosque-Cathedral of Cordoba with an audio tour of the city of Cordoba']</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>4.043165467625899</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>139</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.79136690647482</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>9363.92</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>[('Sunday', 26), ('Monday', 23), ('Tuesday', 23)]</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>93.73309352517985</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>23.23726618705036</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -858,35 +904,40 @@
           <t>October</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Quinta da Regaleira Entry Ticket']</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>4.018072289156627</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>166</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.765060240963855</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>9339.15</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>[('Saturday', 35), ('Tuesday', 25), ('Sunday', 24)]</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>81.03704819277108</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>20.24909638554217</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -901,35 +952,40 @@
           <t>September</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Quinta da Regaleira Entry Ticket']</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>3.945121951219512</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>164</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.689024390243902</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>8973</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[('Sunday', 27), ('Friday', 26), ('Thursday', 26)]</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>79.09756097560975</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>20.14634146341463</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,35 +1000,40 @@
           <t>April</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets']</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>4.330827067669173</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>133</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.218045112781955</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>8745.5</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>[('Saturday', 25), ('Friday', 22), ('Sunday', 21)]</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>98.3609022556391</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>22.70676691729323</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -987,35 +1048,40 @@
           <t>September</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['NAM Entry Ticket']</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>4.106060606060606</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>132</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.765151515151515</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>8226.719999999999</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>[('Friday', 23), ('Thursday', 23), ('Tuesday', 22)]</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>90.33113636363636</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>21.81242424242424</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1030,35 +1096,40 @@
           <t>October</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Knossos &amp; Heraklion Archaeological Museum Entry Tickets']</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>4.25</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>112</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.5625</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>7289.97</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>[('Monday', 24), ('Tuesday', 23), ('Wednesday', 18)]</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>89.87464285714285</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>21.04455357142857</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1073,35 +1144,40 @@
           <t>November</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Entry e-tickets for The Mosque-Cathedral of Cordoba with an audio tour of the city of Cordoba']</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>4.223684210526316</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>76</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.592105263157895</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>5124.96</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>[('Friday', 20), ('Monday', 14), ('Thursday', 13)]</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>89.06513157894737</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>21.07881578947368</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1116,35 +1192,40 @@
           <t>August</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Entry e-tickets for The Mosque-Cathedral of Cordoba with an audio tour of the city of Cordoba']</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>4.285714285714286</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>49</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.959183673469388</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3953.81</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>[('Friday', 8), ('Saturday', 8), ('Sunday', 8)]</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>107.8118367346939</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>25.98714285714286</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1159,35 +1240,40 @@
           <t>March</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Pena Palace, the Moorish Castle, the Quinta da Regaleira + Sintra']</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>4.27536231884058</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>69</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3.550724637681159</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>3812.7</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>[('Friday', 16), ('Wednesday', 11), ('Saturday', 11)]</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>100.7492753623188</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>23.69536231884058</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1202,35 +1288,40 @@
           <t>April</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Castel Sant’ Angelo: E-ticket + Rome City Tour']</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>4.205128205128205</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>39</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>3430</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>[('Friday', 10), ('Sunday', 9), ('Saturday', 7)]</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>121.9487179487179</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>29</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>['English', 'German']</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1245,35 +1336,40 @@
           <t>November</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['Quinta da Regaleira Entry Ticket']</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>4.160714285714286</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>56</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.357142857142857</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>3215.15</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>[('Friday', 15), ('Wednesday', 9), ('Saturday', 8)]</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>79.02053571428571</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>19.01428571428571</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,35 +1384,40 @@
           <t>September</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Entry e-tickets for The Mosque-Cathedral of Cordoba with an audio tour of the city of Cordoba']</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>4.068181818181818</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>44</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.727272727272727</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2987.73</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>[('Saturday', 9), ('Friday', 9), ('Wednesday', 9)]</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>93.62863636363636</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>23.45295454545455</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1331,35 +1432,40 @@
           <t>November</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Acropolis Museum Admission Ticket']</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>3.959183673469388</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>49</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.204081632653061</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2058.67</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>[('Thursday', 11), ('Friday', 10), ('Saturday', 9)]</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>54.98285714285714</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>14.74061224489796</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,35 +1480,40 @@
           <t>December</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Quinta da Regaleira Entry Ticket']</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>4.051282051282051</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>39</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.256410256410256</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>2021.8</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>[('Friday', 15), ('Saturday', 10), ('Thursday', 4)]</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>72.02051282051282</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>17.94871794871795</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>['Spanish']</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1417,35 +1528,40 @@
           <t>August</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Ephesus: the Ancient Pearl of the Mediterranean Skip-the-line Ticket']</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>2.694444444444445</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>36</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1750.5</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>[('Wednesday', 9), ('Tuesday', 7), ('Friday', 6)]</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>77.80555555555556</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>29.22222222222222</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>['English']</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['English']</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>1</v>
       </c>
     </row>
